--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.16067711516722</v>
+        <v>5.451731666666667</v>
       </c>
       <c r="H2">
-        <v>4.16067711516722</v>
+        <v>16.355195</v>
       </c>
       <c r="I2">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="J2">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.446611867381846</v>
+        <v>0.463191</v>
       </c>
       <c r="N2">
-        <v>0.446611867381846</v>
+        <v>1.389573</v>
       </c>
       <c r="O2">
-        <v>0.03707988567574841</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="P2">
-        <v>0.03707988567574841</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="Q2">
-        <v>1.858207775977744</v>
+        <v>2.525193042415</v>
       </c>
       <c r="R2">
-        <v>1.858207775977744</v>
+        <v>22.726737381735</v>
       </c>
       <c r="S2">
-        <v>0.005905322302966153</v>
+        <v>0.006791095501368317</v>
       </c>
       <c r="T2">
-        <v>0.005905322302966153</v>
+        <v>0.006791095501368317</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.16067711516722</v>
+        <v>5.451731666666667</v>
       </c>
       <c r="H3">
-        <v>4.16067711516722</v>
+        <v>16.355195</v>
       </c>
       <c r="I3">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="J3">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.897926520279681</v>
+        <v>9.932929333333332</v>
       </c>
       <c r="N3">
-        <v>9.897926520279681</v>
+        <v>29.798788</v>
       </c>
       <c r="O3">
-        <v>0.8217739173624282</v>
+        <v>0.7576717833204485</v>
       </c>
       <c r="P3">
-        <v>0.8217739173624282</v>
+        <v>0.7576717833204486</v>
       </c>
       <c r="Q3">
-        <v>41.18207636053439</v>
+        <v>54.15166538929556</v>
       </c>
       <c r="R3">
-        <v>41.18207636053439</v>
+        <v>487.36498850366</v>
       </c>
       <c r="S3">
-        <v>0.130875264412429</v>
+        <v>0.1456320863553251</v>
       </c>
       <c r="T3">
-        <v>0.130875264412429</v>
+        <v>0.1456320863553251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.16067711516722</v>
+        <v>5.451731666666667</v>
       </c>
       <c r="H4">
-        <v>4.16067711516722</v>
+        <v>16.355195</v>
       </c>
       <c r="I4">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="J4">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.70004749071259</v>
+        <v>0.1285543333333333</v>
       </c>
       <c r="N4">
-        <v>1.70004749071259</v>
+        <v>0.385663</v>
       </c>
       <c r="O4">
-        <v>0.1411461969618234</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="P4">
-        <v>0.1411461969618234</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="Q4">
-        <v>7.07334868930533</v>
+        <v>0.7008437299205555</v>
       </c>
       <c r="R4">
-        <v>7.07334868930533</v>
+        <v>6.307593569285</v>
       </c>
       <c r="S4">
-        <v>0.02247886609431101</v>
+        <v>0.00188480509073234</v>
       </c>
       <c r="T4">
-        <v>0.02247886609431101</v>
+        <v>0.00188480509073234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.7608485892929</v>
+        <v>5.451731666666667</v>
       </c>
       <c r="H5">
-        <v>15.7608485892929</v>
+        <v>16.355195</v>
       </c>
       <c r="I5">
-        <v>0.6032826034486782</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="J5">
-        <v>0.6032826034486782</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.446611867381846</v>
+        <v>2.585130333333333</v>
       </c>
       <c r="N5">
-        <v>0.446611867381846</v>
+        <v>7.755391</v>
       </c>
       <c r="O5">
-        <v>0.03707988567574841</v>
+        <v>0.1971906014874617</v>
       </c>
       <c r="P5">
-        <v>0.03707988567574841</v>
+        <v>0.1971906014874618</v>
       </c>
       <c r="Q5">
-        <v>7.038982019986635</v>
+        <v>14.09343690069389</v>
       </c>
       <c r="R5">
-        <v>7.038982019986635</v>
+        <v>126.840932106245</v>
       </c>
       <c r="S5">
-        <v>0.02236964996604485</v>
+        <v>0.03790200365972304</v>
       </c>
       <c r="T5">
-        <v>0.02236964996604485</v>
+        <v>0.03790200365972305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.7608485892929</v>
+        <v>15.797976</v>
       </c>
       <c r="H6">
-        <v>15.7608485892929</v>
+        <v>47.393928</v>
       </c>
       <c r="I6">
-        <v>0.6032826034486782</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="J6">
-        <v>0.6032826034486782</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.897926520279681</v>
+        <v>0.463191</v>
       </c>
       <c r="N6">
-        <v>9.897926520279681</v>
+        <v>1.389573</v>
       </c>
       <c r="O6">
-        <v>0.8217739173624282</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="P6">
-        <v>0.8217739173624282</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="Q6">
-        <v>155.9997212340748</v>
+        <v>7.317480301415999</v>
       </c>
       <c r="R6">
-        <v>155.9997212340748</v>
+        <v>65.85732271274401</v>
       </c>
       <c r="S6">
-        <v>0.4957619083126247</v>
+        <v>0.01967917173919197</v>
       </c>
       <c r="T6">
-        <v>0.4957619083126247</v>
+        <v>0.01967917173919197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.7608485892929</v>
+        <v>15.797976</v>
       </c>
       <c r="H7">
-        <v>15.7608485892929</v>
+        <v>47.393928</v>
       </c>
       <c r="I7">
-        <v>0.6032826034486782</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="J7">
-        <v>0.6032826034486782</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.70004749071259</v>
+        <v>9.932929333333332</v>
       </c>
       <c r="N7">
-        <v>1.70004749071259</v>
+        <v>29.798788</v>
       </c>
       <c r="O7">
-        <v>0.1411461969618234</v>
+        <v>0.7576717833204485</v>
       </c>
       <c r="P7">
-        <v>0.1411461969618234</v>
+        <v>0.7576717833204486</v>
       </c>
       <c r="Q7">
-        <v>26.79419109572846</v>
+        <v>156.920179217696</v>
       </c>
       <c r="R7">
-        <v>26.79419109572846</v>
+        <v>1412.281612959264</v>
       </c>
       <c r="S7">
-        <v>0.08515104517000875</v>
+        <v>0.42201127013246</v>
       </c>
       <c r="T7">
-        <v>0.08515104517000875</v>
+        <v>0.4220112701324601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.33811914164623</v>
+        <v>15.797976</v>
       </c>
       <c r="H8">
-        <v>3.33811914164623</v>
+        <v>47.393928</v>
       </c>
       <c r="I8">
-        <v>0.1277741610792642</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="J8">
-        <v>0.1277741610792642</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.446611867381846</v>
+        <v>0.1285543333333333</v>
       </c>
       <c r="N8">
-        <v>0.446611867381846</v>
+        <v>0.385663</v>
       </c>
       <c r="O8">
-        <v>0.03707988567574841</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="P8">
-        <v>0.03707988567574841</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="Q8">
-        <v>1.490843623393708</v>
+        <v>2.030898272696</v>
       </c>
       <c r="R8">
-        <v>1.490843623393708</v>
+        <v>18.278084454264</v>
       </c>
       <c r="S8">
-        <v>0.004737851285133777</v>
+        <v>0.005461770205992773</v>
       </c>
       <c r="T8">
-        <v>0.004737851285133777</v>
+        <v>0.005461770205992773</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.33811914164623</v>
+        <v>15.797976</v>
       </c>
       <c r="H9">
-        <v>3.33811914164623</v>
+        <v>47.393928</v>
       </c>
       <c r="I9">
-        <v>0.1277741610792642</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="J9">
-        <v>0.1277741610792642</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.897926520279681</v>
+        <v>2.585130333333333</v>
       </c>
       <c r="N9">
-        <v>9.897926520279681</v>
+        <v>7.755391</v>
       </c>
       <c r="O9">
-        <v>0.8217739173624282</v>
+        <v>0.1971906014874617</v>
       </c>
       <c r="P9">
-        <v>0.8217739173624282</v>
+        <v>0.1971906014874618</v>
       </c>
       <c r="Q9">
-        <v>33.04045797995347</v>
+        <v>40.839826962872</v>
       </c>
       <c r="R9">
-        <v>33.04045797995347</v>
+        <v>367.558442665848</v>
       </c>
       <c r="S9">
-        <v>0.1050014728878048</v>
+        <v>0.1098320645216795</v>
       </c>
       <c r="T9">
-        <v>0.1050014728878048</v>
+        <v>0.1098320645216795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.33811914164623</v>
+        <v>3.587063</v>
       </c>
       <c r="H10">
-        <v>3.33811914164623</v>
+        <v>10.761189</v>
       </c>
       <c r="I10">
-        <v>0.1277741610792642</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="J10">
-        <v>0.1277741610792642</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.70004749071259</v>
+        <v>0.463191</v>
       </c>
       <c r="N10">
-        <v>1.70004749071259</v>
+        <v>1.389573</v>
       </c>
       <c r="O10">
-        <v>0.1411461969618234</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="P10">
-        <v>0.1411461969618234</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="Q10">
-        <v>5.674961070455338</v>
+        <v>1.661495298033</v>
       </c>
       <c r="R10">
-        <v>5.674961070455338</v>
+        <v>14.953457682297</v>
       </c>
       <c r="S10">
-        <v>0.01803483690632558</v>
+        <v>0.004468321056843053</v>
       </c>
       <c r="T10">
-        <v>0.01803483690632558</v>
+        <v>0.004468321056843053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.86550528949455</v>
+        <v>3.587063</v>
       </c>
       <c r="H11">
-        <v>2.86550528949455</v>
+        <v>10.761189</v>
       </c>
       <c r="I11">
-        <v>0.1096837826623514</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="J11">
-        <v>0.1096837826623514</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.446611867381846</v>
+        <v>9.932929333333332</v>
       </c>
       <c r="N11">
-        <v>0.446611867381846</v>
+        <v>29.798788</v>
       </c>
       <c r="O11">
-        <v>0.03707988567574841</v>
+        <v>0.7576717833204485</v>
       </c>
       <c r="P11">
-        <v>0.03707988567574841</v>
+        <v>0.7576717833204486</v>
       </c>
       <c r="Q11">
-        <v>1.279768668333718</v>
+        <v>35.63004329321466</v>
       </c>
       <c r="R11">
-        <v>1.279768668333718</v>
+        <v>320.670389638932</v>
       </c>
       <c r="S11">
-        <v>0.004067062121603626</v>
+        <v>0.09582119966982812</v>
       </c>
       <c r="T11">
-        <v>0.004067062121603626</v>
+        <v>0.09582119966982813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.86550528949455</v>
+        <v>3.587063</v>
       </c>
       <c r="H12">
-        <v>2.86550528949455</v>
+        <v>10.761189</v>
       </c>
       <c r="I12">
-        <v>0.1096837826623514</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="J12">
-        <v>0.1096837826623514</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.897926520279681</v>
+        <v>0.1285543333333333</v>
       </c>
       <c r="N12">
-        <v>9.897926520279681</v>
+        <v>0.385663</v>
       </c>
       <c r="O12">
-        <v>0.8217739173624282</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="P12">
-        <v>0.8217739173624282</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="Q12">
-        <v>28.36256079888981</v>
+        <v>0.4611324925896667</v>
       </c>
       <c r="R12">
-        <v>28.36256079888981</v>
+        <v>4.150192433307</v>
       </c>
       <c r="S12">
-        <v>0.09013527174956971</v>
+        <v>0.001240140750968292</v>
       </c>
       <c r="T12">
-        <v>0.09013527174956971</v>
+        <v>0.001240140750968292</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.86550528949455</v>
+        <v>3.587063</v>
       </c>
       <c r="H13">
-        <v>2.86550528949455</v>
+        <v>10.761189</v>
       </c>
       <c r="I13">
-        <v>0.1096837826623514</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="J13">
-        <v>0.1096837826623514</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.70004749071259</v>
+        <v>2.585130333333333</v>
       </c>
       <c r="N13">
-        <v>1.70004749071259</v>
+        <v>7.755391</v>
       </c>
       <c r="O13">
-        <v>0.1411461969618234</v>
+        <v>0.1971906014874617</v>
       </c>
       <c r="P13">
-        <v>0.1411461969618234</v>
+        <v>0.1971906014874618</v>
       </c>
       <c r="Q13">
-        <v>4.871495077028864</v>
+        <v>9.273025368877667</v>
       </c>
       <c r="R13">
-        <v>4.871495077028864</v>
+        <v>83.457228319899</v>
       </c>
       <c r="S13">
-        <v>0.01548144879117809</v>
+        <v>0.02493829176973869</v>
       </c>
       <c r="T13">
-        <v>0.01548144879117809</v>
+        <v>0.02493829176973869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.526644000000001</v>
+      </c>
+      <c r="H14">
+        <v>10.579932</v>
+      </c>
+      <c r="I14">
+        <v>0.1243377795461487</v>
+      </c>
+      <c r="J14">
+        <v>0.1243377795461487</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.463191</v>
+      </c>
+      <c r="N14">
+        <v>1.389573</v>
+      </c>
+      <c r="O14">
+        <v>0.0353316468093919</v>
+      </c>
+      <c r="P14">
+        <v>0.0353316468093919</v>
+      </c>
+      <c r="Q14">
+        <v>1.633509761004</v>
+      </c>
+      <c r="R14">
+        <v>14.701587849036</v>
+      </c>
+      <c r="S14">
+        <v>0.004393058511988558</v>
+      </c>
+      <c r="T14">
+        <v>0.004393058511988558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.526644000000001</v>
+      </c>
+      <c r="H15">
+        <v>10.579932</v>
+      </c>
+      <c r="I15">
+        <v>0.1243377795461487</v>
+      </c>
+      <c r="J15">
+        <v>0.1243377795461487</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.932929333333332</v>
+      </c>
+      <c r="N15">
+        <v>29.798788</v>
+      </c>
+      <c r="O15">
+        <v>0.7576717833204485</v>
+      </c>
+      <c r="P15">
+        <v>0.7576717833204486</v>
+      </c>
+      <c r="Q15">
+        <v>35.029905635824</v>
+      </c>
+      <c r="R15">
+        <v>315.269150722416</v>
+      </c>
+      <c r="S15">
+        <v>0.09420722716283526</v>
+      </c>
+      <c r="T15">
+        <v>0.09420722716283528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.526644000000001</v>
+      </c>
+      <c r="H16">
+        <v>10.579932</v>
+      </c>
+      <c r="I16">
+        <v>0.1243377795461487</v>
+      </c>
+      <c r="J16">
+        <v>0.1243377795461487</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1285543333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.385663</v>
+      </c>
+      <c r="O16">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="P16">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="Q16">
+        <v>0.453365368324</v>
+      </c>
+      <c r="R16">
+        <v>4.080288314916</v>
+      </c>
+      <c r="S16">
+        <v>0.001219252335004381</v>
+      </c>
+      <c r="T16">
+        <v>0.001219252335004381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.526644000000001</v>
+      </c>
+      <c r="H17">
+        <v>10.579932</v>
+      </c>
+      <c r="I17">
+        <v>0.1243377795461487</v>
+      </c>
+      <c r="J17">
+        <v>0.1243377795461487</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.585130333333333</v>
+      </c>
+      <c r="N17">
+        <v>7.755391</v>
+      </c>
+      <c r="O17">
+        <v>0.1971906014874617</v>
+      </c>
+      <c r="P17">
+        <v>0.1971906014874618</v>
+      </c>
+      <c r="Q17">
+        <v>9.116834379268001</v>
+      </c>
+      <c r="R17">
+        <v>82.05150941341202</v>
+      </c>
+      <c r="S17">
+        <v>0.02451824153632048</v>
+      </c>
+      <c r="T17">
+        <v>0.02451824153632048</v>
       </c>
     </row>
   </sheetData>
